--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618070</v>
+        <v>111618078</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -713,21 +713,13 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -736,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580592.470229132</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R2" t="n">
-        <v>6415141.442167919</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,11 +774,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -948,7 +935,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618046</v>
+        <v>111618039</v>
       </c>
       <c r="B4" t="n">
         <v>93388</v>
@@ -992,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580591.6383206119</v>
+        <v>580599.6803078586</v>
       </c>
       <c r="R4" t="n">
-        <v>6415156.322361182</v>
+        <v>6415233.627682217</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1065,7 +1052,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111618078</v>
+        <v>111618070</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1098,13 +1085,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1113,10 +1108,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>580612.1009209087</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R5" t="n">
-        <v>6415119.491031807</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,6 +1154,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618056</v>
+        <v>111618109</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1238,14 +1238,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>A 32649, Heda, Sm</t>
+          <t>A 32649, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580582.6881743574</v>
+        <v>580619.1666838422</v>
       </c>
       <c r="R6" t="n">
-        <v>6415124.22061418</v>
+        <v>6415112.716507593</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618144</v>
+        <v>111618056</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1363,7 +1363,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1372,10 +1376,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580620.6996611424</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R7" t="n">
-        <v>6415142.541277731</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1418,6 +1422,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1445,7 +1454,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111618109</v>
+        <v>111618144</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1480,7 +1489,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1488,23 +1497,19 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A 32649, Sm</t>
+          <t>A 32649, Heda, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>580619.1666838422</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R8" t="n">
-        <v>6415112.716507593</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1547,11 +1552,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1579,7 +1579,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618039</v>
+        <v>111618046</v>
       </c>
       <c r="B9" t="n">
         <v>93388</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580599.6803078586</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R9" t="n">
-        <v>6415233.627682217</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618078</v>
+        <v>111618039</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,33 +692,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -728,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580612.1009209087</v>
+        <v>580599.6803078586</v>
       </c>
       <c r="R2" t="n">
-        <v>6415119.491031807</v>
+        <v>6415233.627682217</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111618089</v>
+        <v>111618144</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -836,7 +832,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -844,11 +840,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -857,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580617.6201989455</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R3" t="n">
-        <v>6415136.627037819</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -903,11 +895,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -935,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618039</v>
+        <v>111618070</v>
       </c>
       <c r="B4" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -947,30 +934,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -979,10 +978,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580599.6803078586</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R4" t="n">
-        <v>6415233.627682217</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,6 +1024,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1052,10 +1056,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111618070</v>
+        <v>111618046</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,42 +1068,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1108,10 +1100,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>580592.470229132</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R5" t="n">
-        <v>6415141.442167919</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1154,11 +1146,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1186,7 +1173,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618109</v>
+        <v>111618089</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1221,7 +1208,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1238,14 +1225,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>A 32649, Sm</t>
+          <t>A 32649, Heda, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580619.1666838422</v>
+        <v>580617.6201989455</v>
       </c>
       <c r="R6" t="n">
-        <v>6415112.716507593</v>
+        <v>6415136.627037819</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1320,7 +1307,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618056</v>
+        <v>111618109</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1355,7 +1342,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1372,14 +1359,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>A 32649, Heda, Sm</t>
+          <t>A 32649, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580582.6881743574</v>
+        <v>580619.1666838422</v>
       </c>
       <c r="R7" t="n">
-        <v>6415124.22061418</v>
+        <v>6415112.716507593</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1426,7 +1413,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1454,7 +1441,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111618144</v>
+        <v>111618078</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1487,11 +1474,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1506,10 +1489,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>580620.6996611424</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R8" t="n">
-        <v>6415142.541277731</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1579,10 +1562,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618046</v>
+        <v>111618056</v>
       </c>
       <c r="B9" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1591,30 +1574,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1623,10 +1618,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580591.6383206119</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R9" t="n">
-        <v>6415156.322361182</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,6 +1664,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618039</v>
+        <v>111618144</v>
       </c>
       <c r="B2" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,29 +692,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -724,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580599.6803078586</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R2" t="n">
-        <v>6415233.627682217</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111618144</v>
+        <v>111618078</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -830,11 +838,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -849,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580620.6996611424</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R3" t="n">
-        <v>6415142.541277731</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618070</v>
+        <v>111618046</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,42 +938,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -978,10 +970,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580592.470229132</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R4" t="n">
-        <v>6415141.442167919</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,11 +1016,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1056,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111618046</v>
+        <v>111618039</v>
       </c>
       <c r="B5" t="n">
         <v>93388</v>
@@ -1100,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>580591.6383206119</v>
+        <v>580599.6803078586</v>
       </c>
       <c r="R5" t="n">
-        <v>6415156.322361182</v>
+        <v>6415233.627682217</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1173,7 +1160,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618089</v>
+        <v>111618056</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1208,7 +1195,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1229,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580617.6201989455</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R6" t="n">
-        <v>6415136.627037819</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1279,7 +1266,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1 blomma</t>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1307,7 +1294,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618109</v>
+        <v>111618070</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1342,7 +1329,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1359,14 +1346,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>A 32649, Sm</t>
+          <t>A 32649, Heda, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580619.1666838422</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R7" t="n">
-        <v>6415112.716507593</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1441,7 +1428,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111618078</v>
+        <v>111618109</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1474,25 +1461,33 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A 32649, Heda, Sm</t>
+          <t>A 32649, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>580612.1009209087</v>
+        <v>580619.1666838422</v>
       </c>
       <c r="R8" t="n">
-        <v>6415119.491031807</v>
+        <v>6415112.716507593</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1535,6 +1530,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1562,7 +1562,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618056</v>
+        <v>111618089</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580582.6881743574</v>
+        <v>580617.6201989455</v>
       </c>
       <c r="R9" t="n">
-        <v>6415124.22061418</v>
+        <v>6415136.627037819</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618144</v>
+        <v>111618070</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -723,7 +723,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -732,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580620.6996611424</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R2" t="n">
-        <v>6415142.541277731</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -778,6 +782,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -805,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111618078</v>
+        <v>111618056</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -838,13 +847,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -853,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580612.1009209087</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R3" t="n">
-        <v>6415119.491031807</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -899,6 +916,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -926,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618046</v>
+        <v>111618109</v>
       </c>
       <c r="B4" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,42 +960,54 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>A 32649, Heda, Sm</t>
+          <t>A 32649, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580591.6383206119</v>
+        <v>580619.1666838422</v>
       </c>
       <c r="R4" t="n">
-        <v>6415156.322361182</v>
+        <v>6415112.716507593</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,6 +1050,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1160,7 +1199,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618056</v>
+        <v>111618078</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1193,21 +1232,13 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1216,10 +1247,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580582.6881743574</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R6" t="n">
-        <v>6415124.22061418</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1262,11 +1293,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1294,7 +1320,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618070</v>
+        <v>111618144</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1329,7 +1355,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1337,11 +1363,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1350,10 +1372,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580592.470229132</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R7" t="n">
-        <v>6415141.442167919</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1396,11 +1418,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1428,10 +1445,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111618109</v>
+        <v>111618046</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1440,54 +1457,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A 32649, Sm</t>
+          <t>A 32649, Heda, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>580619.1666838422</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R8" t="n">
-        <v>6415112.716507593</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1530,11 +1535,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618070</v>
+        <v>111618089</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580592.470229132</v>
+        <v>580617.6201989455</v>
       </c>
       <c r="R2" t="n">
-        <v>6415141.442167919</v>
+        <v>6415136.627037819</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111618056</v>
+        <v>111618109</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -866,14 +866,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>A 32649, Heda, Sm</t>
+          <t>A 32649, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580582.6881743574</v>
+        <v>580619.1666838422</v>
       </c>
       <c r="R3" t="n">
-        <v>6415124.22061418</v>
+        <v>6415112.716507593</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -948,7 +948,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618109</v>
+        <v>111618078</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -981,33 +981,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>A 32649, Sm</t>
+          <t>A 32649, Heda, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580619.1666838422</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R4" t="n">
-        <v>6415112.716507593</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1050,11 +1042,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1199,7 +1186,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618078</v>
+        <v>111618144</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1232,7 +1219,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1247,10 +1238,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580612.1009209087</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R6" t="n">
-        <v>6415119.491031807</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1320,7 +1311,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618144</v>
+        <v>111618070</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1355,7 +1346,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1363,7 +1354,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1372,10 +1367,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580620.6996611424</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R7" t="n">
-        <v>6415142.541277731</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1418,6 +1413,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1445,10 +1445,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111618046</v>
+        <v>111618056</v>
       </c>
       <c r="B8" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1457,30 +1457,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1489,10 +1501,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>580591.6383206119</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R8" t="n">
-        <v>6415156.322361182</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1535,6 +1547,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1562,10 +1579,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618089</v>
+        <v>111618046</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1574,42 +1591,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1618,10 +1623,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580617.6201989455</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R9" t="n">
-        <v>6415136.627037819</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1664,11 +1669,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618089</v>
+        <v>111618046</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -736,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580617.6201989455</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R2" t="n">
-        <v>6415136.627037819</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,11 +770,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -814,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111618109</v>
+        <v>111618089</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -849,7 +832,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -866,14 +849,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>A 32649, Sm</t>
+          <t>A 32649, Heda, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580619.1666838422</v>
+        <v>580617.6201989455</v>
       </c>
       <c r="R3" t="n">
-        <v>6415112.716507593</v>
+        <v>6415136.627037819</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -948,10 +931,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618078</v>
+        <v>111618039</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,33 +943,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -996,10 +975,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580612.1009209087</v>
+        <v>580599.6803078586</v>
       </c>
       <c r="R4" t="n">
-        <v>6415119.491031807</v>
+        <v>6415233.627682217</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1069,10 +1048,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111618039</v>
+        <v>111618078</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,29 +1060,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1113,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>580599.6803078586</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R5" t="n">
-        <v>6415233.627682217</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1186,7 +1169,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618144</v>
+        <v>111618070</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1221,7 +1204,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1229,7 +1212,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1238,10 +1225,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580620.6996611424</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R6" t="n">
-        <v>6415142.541277731</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1284,6 +1271,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1311,7 +1303,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618070</v>
+        <v>111618056</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1367,10 +1359,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580592.470229132</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R7" t="n">
-        <v>6415141.442167919</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1417,7 +1409,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1 blomma</t>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1445,7 +1437,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111618056</v>
+        <v>111618109</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1480,7 +1472,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1497,14 +1489,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A 32649, Heda, Sm</t>
+          <t>A 32649, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>580582.6881743574</v>
+        <v>580619.1666838422</v>
       </c>
       <c r="R8" t="n">
-        <v>6415124.22061418</v>
+        <v>6415112.716507593</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1551,7 +1543,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1579,10 +1571,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618046</v>
+        <v>111618144</v>
       </c>
       <c r="B9" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1591,29 +1583,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580591.6383206119</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R9" t="n">
-        <v>6415156.322361182</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618046</v>
+        <v>111618089</v>
       </c>
       <c r="B2" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -724,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580591.6383206119</v>
+        <v>580617.6201989455</v>
       </c>
       <c r="R2" t="n">
-        <v>6415156.322361182</v>
+        <v>6415136.627037819</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,6 +782,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111618089</v>
+        <v>111618070</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -832,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -853,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580617.6201989455</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R3" t="n">
-        <v>6415136.627037819</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -931,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618039</v>
+        <v>111618144</v>
       </c>
       <c r="B4" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,29 +960,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -975,10 +1000,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580599.6803078586</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R4" t="n">
-        <v>6415233.627682217</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1048,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111618078</v>
+        <v>111618039</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,33 +1085,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1096,10 +1117,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>580612.1009209087</v>
+        <v>580599.6803078586</v>
       </c>
       <c r="R5" t="n">
-        <v>6415119.491031807</v>
+        <v>6415233.627682217</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1169,7 +1190,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618070</v>
+        <v>111618078</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1202,21 +1223,13 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1225,10 +1238,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580592.470229132</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R6" t="n">
-        <v>6415141.442167919</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1271,11 +1284,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,10 +1311,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618056</v>
+        <v>111618046</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,42 +1323,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1359,10 +1355,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580582.6881743574</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R7" t="n">
-        <v>6415124.22061418</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1405,11 +1401,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1571,7 +1562,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618144</v>
+        <v>111618056</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1606,7 +1597,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1614,7 +1605,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1623,10 +1618,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580620.6996611424</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R9" t="n">
-        <v>6415142.541277731</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,6 +1664,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111618089</v>
+        <v>111618056</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580617.6201989455</v>
+        <v>580582.6881743574</v>
       </c>
       <c r="R2" t="n">
-        <v>6415136.627037819</v>
+        <v>6415124.22061418</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1 blomma</t>
+          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -814,10 +814,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111618070</v>
+        <v>111618039</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -826,42 +826,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -870,10 +858,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580592.470229132</v>
+        <v>580599.6803078586</v>
       </c>
       <c r="R3" t="n">
-        <v>6415141.442167919</v>
+        <v>6415233.627682217</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -916,11 +904,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -948,7 +931,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618144</v>
+        <v>111618070</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -983,7 +966,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -991,7 +974,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -1000,10 +987,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580620.6996611424</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R4" t="n">
-        <v>6415142.541277731</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1046,6 +1033,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1073,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111618039</v>
+        <v>111618089</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1085,30 +1077,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1117,10 +1121,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>580599.6803078586</v>
+        <v>580617.6201989455</v>
       </c>
       <c r="R5" t="n">
-        <v>6415233.627682217</v>
+        <v>6415136.627037819</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1163,6 +1167,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1190,7 +1199,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618078</v>
+        <v>111618144</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1223,7 +1232,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1238,10 +1251,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580612.1009209087</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R6" t="n">
-        <v>6415119.491031807</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1562,7 +1575,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618056</v>
+        <v>111618078</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1595,21 +1608,13 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1618,10 +1623,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580582.6881743574</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R9" t="n">
-        <v>6415124.22061418</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1664,11 +1669,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2 blommor</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 32649-2023.xlsx
+++ b/artfynd/A 32649-2023.xlsx
@@ -931,7 +931,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111618070</v>
+        <v>111618144</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -966,7 +966,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -974,11 +974,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -987,10 +983,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580592.470229132</v>
+        <v>580620.6996611424</v>
       </c>
       <c r="R4" t="n">
-        <v>6415141.442167919</v>
+        <v>6415142.541277731</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1033,11 +1029,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1065,10 +1056,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111618089</v>
+        <v>111618046</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>93388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,42 +1068,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1121,10 +1100,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>580617.6201989455</v>
+        <v>580591.6383206119</v>
       </c>
       <c r="R5" t="n">
-        <v>6415136.627037819</v>
+        <v>6415156.322361182</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1167,11 +1146,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1199,7 +1173,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111618144</v>
+        <v>111618070</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1234,7 +1208,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1242,7 +1216,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1251,10 +1229,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>580620.6996611424</v>
+        <v>580592.470229132</v>
       </c>
       <c r="R6" t="n">
-        <v>6415142.541277731</v>
+        <v>6415141.442167919</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1297,6 +1275,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1324,10 +1307,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111618046</v>
+        <v>111618078</v>
       </c>
       <c r="B7" t="n">
-        <v>93388</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1336,29 +1319,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1368,10 +1355,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>580591.6383206119</v>
+        <v>580612.1009209087</v>
       </c>
       <c r="R7" t="n">
-        <v>6415156.322361182</v>
+        <v>6415119.491031807</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1441,7 +1428,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111618109</v>
+        <v>111618089</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1476,7 +1463,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1493,14 +1480,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A 32649, Sm</t>
+          <t>A 32649, Heda, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>580619.1666838422</v>
+        <v>580617.6201989455</v>
       </c>
       <c r="R8" t="n">
-        <v>6415112.716507593</v>
+        <v>6415136.627037819</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1575,7 +1562,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111618078</v>
+        <v>111618109</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1608,25 +1595,33 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>A 32649, Heda, Sm</t>
+          <t>A 32649, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>580612.1009209087</v>
+        <v>580619.1666838422</v>
       </c>
       <c r="R9" t="n">
-        <v>6415119.491031807</v>
+        <v>6415112.716507593</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,6 +1664,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD9" t="b">
